--- a/downloaded_files/SBES252_Tutorial-35368.xlsx
+++ b/downloaded_files/SBES252_Tutorial-35368.xlsx
@@ -147,7 +147,7 @@
     <x:t>زياد خالد عزت عبد المنعم</x:t>
   </x:si>
   <x:si>
-    <x:t>Zeyad khaled ezzat abdel monem</x:t>
+    <x:t>Zeyad khaled Ezzat Abdel Moniem</x:t>
   </x:si>
   <x:si>
     <x:t>4230195</x:t>

--- a/downloaded_files/SBES252_Tutorial-35368.xlsx
+++ b/downloaded_files/SBES252_Tutorial-35368.xlsx
@@ -2045,11 +2045,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Algorithms in Medicine (SBES252) Location : [20511]20511-45-الجيزة الرئيسي Time : Tuesday(11:13)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Algorithms in Medicine (SBES252) Location : ----- Time : Monday(13:15)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Algorithms in Medicine (SBES252) Location : [20511]20511-45-الجيزة الرئيسي Time : Tuesday(11:13)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Algorithms in Medicine (SBES252) Location : ----- Time : Monday(13:15)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Algorithms in Medicine (SBES252) Location : [20511]20511-45-الجيزة الرئيسي Time : Tuesday(11:13)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Algorithms in Medicine (SBES252) Location : ----- Time : Monday(13:15)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:rowBreaks count="1" manualBreakCount="1">

--- a/downloaded_files/SBES252_Tutorial-35368.xlsx
+++ b/downloaded_files/SBES252_Tutorial-35368.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -177,6 +177,15 @@
     <x:t>Seif allah elsayed mousa ragab</x:t>
   </x:si>
   <x:si>
+    <x:t>1220063</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن أسامة حسين محمد حماد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Osama Hussien Mohamed Hammad</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230070</x:t>
   </x:si>
   <x:si>
@@ -222,6 +231,15 @@
     <x:t>Amr Nasser Abd Elrahman</x:t>
   </x:si>
   <x:si>
+    <x:t>1220266</x:t>
+  </x:si>
+  <x:si>
+    <x:t>غزل حسام الدين رضوان عصر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ghazzl Hossameldin Radwan Asar</x:t>
+  </x:si>
+  <x:si>
     <x:t>4230162</x:t>
   </x:si>
   <x:si>
@@ -240,15 +258,6 @@
     <x:t>Caroline Ehab Sobhy Fekry</x:t>
   </x:si>
   <x:si>
-    <x:t>1210355</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ماهي تامر حسن ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahy tamer hassan Ibrahim</x:t>
-  </x:si>
-  <x:si>
     <x:t>1200245</x:t>
   </x:si>
   <x:si>
@@ -319,6 +328,24 @@
   </x:si>
   <x:si>
     <x:t>Malak Osama Abdulhameed Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220209</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ملك فتحي سعد فتحي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Malak fathy saad fathy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>منه الله نبيل عبد العظيم المتولى سيد احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mennat Allah Nabil Abdel Azim El/Metwally</x:t>
   </x:si>
   <x:si>
     <x:t>1220321</x:t>
@@ -479,7 +506,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -779,7 +806,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T38"/>
+  <x:dimension ref="A1:T41"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -787,7 +814,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="32.060625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="32.520624999999995" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="52.460625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -1382,7 +1409,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.414927581</x:v>
+        <x:v>45927.4143737616</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1414,7 +1441,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6678304745</x:v>
+        <x:v>45907.414927581</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1446,7 +1473,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4153362616</x:v>
+        <x:v>45906.6678304745</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1478,7 +1505,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6650606481</x:v>
+        <x:v>45907.4153362616</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1510,7 +1537,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.417681169</x:v>
+        <x:v>45906.6650606481</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1542,7 +1569,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6658774306</x:v>
+        <x:v>45907.417681169</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1574,7 +1601,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.664687419</x:v>
+        <x:v>45927.4142580208</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1606,7 +1633,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4154093403</x:v>
+        <x:v>45906.6658774306</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1638,7 +1665,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6657622338</x:v>
+        <x:v>45906.664687419</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1670,7 +1697,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4145670486</x:v>
+        <x:v>45906.6657622338</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1702,7 +1729,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4157087616</x:v>
+        <x:v>45907.4145670486</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1734,7 +1761,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4160790162</x:v>
+        <x:v>45907.4157087616</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1766,7 +1793,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6653831018</x:v>
+        <x:v>45907.4160790162</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1798,7 +1825,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4200395833</x:v>
+        <x:v>45906.6653831018</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1830,7 +1857,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4166309375</x:v>
+        <x:v>45907.4200395833</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1862,7 +1889,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4176326389</x:v>
+        <x:v>45907.4166309375</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1894,7 +1921,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4148210301</x:v>
+        <x:v>45907.4176326389</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1926,7 +1953,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4169562847</x:v>
+        <x:v>45927.4143182523</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1958,7 +1985,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4152314005</x:v>
+        <x:v>45927.4162666319</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1990,7 +2017,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.6649812153</x:v>
+        <x:v>45907.4148210301</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2022,7 +2049,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.4157806366</x:v>
+        <x:v>45907.4169562847</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2039,6 +2066,102 @@
       <x:c r="R38" s="2" t="s"/>
       <x:c r="S38" s="2" t="s"/>
       <x:c r="T38" s="2" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:20">
+      <x:c r="A39" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D39" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="E39" s="3">
+        <x:v>45907.4152314005</x:v>
+      </x:c>
+      <x:c r="F39" s="2" t="s"/>
+      <x:c r="G39" s="2" t="s"/>
+      <x:c r="H39" s="2" t="s"/>
+      <x:c r="I39" s="2" t="s"/>
+      <x:c r="J39" s="2" t="s"/>
+      <x:c r="K39" s="2" t="s"/>
+      <x:c r="L39" s="2" t="s"/>
+      <x:c r="M39" s="2" t="s"/>
+      <x:c r="N39" s="2" t="s"/>
+      <x:c r="O39" s="2" t="s"/>
+      <x:c r="P39" s="2" t="s"/>
+      <x:c r="Q39" s="2" t="s"/>
+      <x:c r="R39" s="2" t="s"/>
+      <x:c r="S39" s="2" t="s"/>
+      <x:c r="T39" s="2" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:20">
+      <x:c r="A40" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B40" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="D40" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="E40" s="3">
+        <x:v>45906.6649812153</x:v>
+      </x:c>
+      <x:c r="F40" s="2" t="s"/>
+      <x:c r="G40" s="2" t="s"/>
+      <x:c r="H40" s="2" t="s"/>
+      <x:c r="I40" s="2" t="s"/>
+      <x:c r="J40" s="2" t="s"/>
+      <x:c r="K40" s="2" t="s"/>
+      <x:c r="L40" s="2" t="s"/>
+      <x:c r="M40" s="2" t="s"/>
+      <x:c r="N40" s="2" t="s"/>
+      <x:c r="O40" s="2" t="s"/>
+      <x:c r="P40" s="2" t="s"/>
+      <x:c r="Q40" s="2" t="s"/>
+      <x:c r="R40" s="2" t="s"/>
+      <x:c r="S40" s="2" t="s"/>
+      <x:c r="T40" s="2" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:20">
+      <x:c r="A41" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="D41" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="E41" s="3">
+        <x:v>45906.4157806366</x:v>
+      </x:c>
+      <x:c r="F41" s="2" t="s"/>
+      <x:c r="G41" s="2" t="s"/>
+      <x:c r="H41" s="2" t="s"/>
+      <x:c r="I41" s="2" t="s"/>
+      <x:c r="J41" s="2" t="s"/>
+      <x:c r="K41" s="2" t="s"/>
+      <x:c r="L41" s="2" t="s"/>
+      <x:c r="M41" s="2" t="s"/>
+      <x:c r="N41" s="2" t="s"/>
+      <x:c r="O41" s="2" t="s"/>
+      <x:c r="P41" s="2" t="s"/>
+      <x:c r="Q41" s="2" t="s"/>
+      <x:c r="R41" s="2" t="s"/>
+      <x:c r="S41" s="2" t="s"/>
+      <x:c r="T41" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES252_Tutorial-35368.xlsx
+++ b/downloaded_files/SBES252_Tutorial-35368.xlsx
@@ -2168,11 +2168,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Algorithms in Medicine (SBES252) Location : ----- Time : Monday(13:15)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Algorithms in Medicine (SBES252) Location : [18102]18102-60-الجيزة الرئيسي Time : Monday(13:15)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Algorithms in Medicine (SBES252) Location : ----- Time : Monday(13:15)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Algorithms in Medicine (SBES252) Location : [18102]18102-60-الجيزة الرئيسي Time : Monday(13:15)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Algorithms in Medicine (SBES252) Location : ----- Time : Monday(13:15)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Algorithms in Medicine (SBES252) Location : [18102]18102-60-الجيزة الرئيسي Time : Monday(13:15)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:rowBreaks count="1" manualBreakCount="1">

--- a/downloaded_files/SBES252_Tutorial-35368.xlsx
+++ b/downloaded_files/SBES252_Tutorial-35368.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -364,6 +364,15 @@
   </x:si>
   <x:si>
     <x:t>Hana Mahmoud Mohamed Elsadek Mohamed Abdelmotaal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220294</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يحيي زكريا فوزي أحمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yehia Zakria Fawzi Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1230336</x:t>
@@ -506,7 +515,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -806,7 +815,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T41"/>
+  <x:dimension ref="A1:T42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2081,7 +2090,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.4152314005</x:v>
+        <x:v>45930.3527734954</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2113,7 +2122,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.6649812153</x:v>
+        <x:v>45907.4152314005</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2145,7 +2154,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.4157806366</x:v>
+        <x:v>45906.6649812153</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2162,6 +2171,38 @@
       <x:c r="R41" s="2" t="s"/>
       <x:c r="S41" s="2" t="s"/>
       <x:c r="T41" s="2" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:20">
+      <x:c r="A42" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D42" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="E42" s="3">
+        <x:v>45906.4157806366</x:v>
+      </x:c>
+      <x:c r="F42" s="2" t="s"/>
+      <x:c r="G42" s="2" t="s"/>
+      <x:c r="H42" s="2" t="s"/>
+      <x:c r="I42" s="2" t="s"/>
+      <x:c r="J42" s="2" t="s"/>
+      <x:c r="K42" s="2" t="s"/>
+      <x:c r="L42" s="2" t="s"/>
+      <x:c r="M42" s="2" t="s"/>
+      <x:c r="N42" s="2" t="s"/>
+      <x:c r="O42" s="2" t="s"/>
+      <x:c r="P42" s="2" t="s"/>
+      <x:c r="Q42" s="2" t="s"/>
+      <x:c r="R42" s="2" t="s"/>
+      <x:c r="S42" s="2" t="s"/>
+      <x:c r="T42" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES252_Tutorial-35368.xlsx
+++ b/downloaded_files/SBES252_Tutorial-35368.xlsx
@@ -282,7 +282,7 @@
     <x:t>محمد حاتم فوزى محمود المتناوى</x:t>
   </x:si>
   <x:si>
-    <x:t>mohamed hatem fawzy Mahmoud</x:t>
+    <x:t>Mohamed Hatem Fawzy Mahmoud El-Metnawy</x:t>
   </x:si>
   <x:si>
     <x:t>1220079</x:t>
@@ -309,7 +309,7 @@
     <x:t>مروان محمد محمد رمزي عبدالرحمن</x:t>
   </x:si>
   <x:si>
-    <x:t>Marwan mohamed mohamed ramzy</x:t>
+    <x:t>Marwan Mohamed Mohamed Ramzy Abdelrahman</x:t>
   </x:si>
   <x:si>
     <x:t>1220315</x:t>

--- a/downloaded_files/SBES252_Tutorial-35368.xlsx
+++ b/downloaded_files/SBES252_Tutorial-35368.xlsx
@@ -2209,11 +2209,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Algorithms in Medicine (SBES252) Location : [18102]18102-60-الجيزة الرئيسي Time : Monday(13:15)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Algorithms in Medicine (SBES252) Location : [0]1125-0-الجيزة الرئيسي Time : Monday(13:15)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Algorithms in Medicine (SBES252) Location : [18102]18102-60-الجيزة الرئيسي Time : Monday(13:15)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Algorithms in Medicine (SBES252) Location : [0]1125-0-الجيزة الرئيسي Time : Monday(13:15)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Algorithms in Medicine (SBES252) Location : [18102]18102-60-الجيزة الرئيسي Time : Monday(13:15)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Algorithms in Medicine (SBES252) Location : [0]1125-0-الجيزة الرئيسي Time : Monday(13:15)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:rowBreaks count="1" manualBreakCount="1">
